--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -91,11 +91,6 @@
     <t>WINTER BREAK</t>
   </si>
   <si>
-    <t>Agile Development and Extreme Programming
-(XP: Chapters 1-5, Questions and Discussions)
-Development Process discussion</t>
-  </si>
-  <si>
     <t>Team Use Cases
 (in-class session)</t>
   </si>
@@ -185,10 +180,6 @@
   <si>
     <t>Lecture 7: HTML &amp; CSS
 Lab 1: HTML and CSS assigned</t>
-  </si>
-  <si>
-    <t>Lecture 8: Web Applications
-Lab 2: Web Applicaations assigned</t>
   </si>
   <si>
     <t xml:space="preserve"> Lab 2: Web Applications Due (Marmoset)</t>
@@ -264,14 +255,23 @@
 (Google Doc)</t>
   </si>
   <si>
+    <t>CS320: SW Engineering - Spring 2017 Schedule
+(subject to change)</t>
+  </si>
+  <si>
     <t>Lecture 2: Development Process, Manifesto for Agile Development
-UD-Chapter 2
+UD-Chapter 2</t>
+  </si>
+  <si>
+    <t>Agile Development and Extreme Programming
+(XP: Chapters 1-5, Questions and Discussions)
+Development Process discussion
 A01: Team Project Proposal due
 (Google Doc)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(subject to change)</t>
+    <t>Lecture 8: Web Applications
+Lab 2: Web Applications assigned</t>
   </si>
 </sst>
 </file>
@@ -773,232 +773,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,27 +1323,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
+      <c r="A1" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1361,536 +1361,536 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="78">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="5">
         <v>15</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:I3" si="0">C3 + 1</f>
         <v>16</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="29"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6">
+      <c r="A5" s="70"/>
+      <c r="B5" s="68">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="14">
         <f>I3 + 1</f>
         <v>22</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="11">
         <f>C5 + 1</f>
         <v>23</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="11">
         <f t="shared" ref="E5:I15" si="1">D5 + 1</f>
         <v>24</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="15">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27" t="s">
+    <row r="6" spans="1:9" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="6">
+      <c r="A7" s="70"/>
+      <c r="B7" s="68">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="14">
         <f>I5 + 1</f>
         <v>29</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="11">
         <f>C7 + 1</f>
         <v>30</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="15">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="17">
         <f>F7 + 1</f>
         <v>2</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="17">
         <f>G7 + 1</f>
         <v>3</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="18">
         <f>H7 + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="41"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="80">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="26">
         <f>I7 + 1</f>
         <v>5</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="27">
         <f>C9 + 1</f>
         <v>6</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="24">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="41"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="9">
+      <c r="A11" s="76"/>
+      <c r="B11" s="72">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="30">
         <f>I9 + 1</f>
         <v>12</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="24">
         <f>C11 + 1</f>
         <v>13</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="24">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="24">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40" t="s">
+      <c r="D12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="41"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="9">
+      <c r="A13" s="76"/>
+      <c r="B13" s="72">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="30">
         <f>I11 + 1</f>
         <v>19</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="24">
         <f>C13 + 1</f>
         <v>20</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="24">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="24">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="24">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="31">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="47" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9">
+      <c r="A15" s="76"/>
+      <c r="B15" s="72">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="9">
         <f>I13 + 1</f>
         <v>26</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="10">
         <f>C15 + 1</f>
         <v>27</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="31">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="6">
         <f>F15 + 1</f>
         <v>2</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="6">
         <f>G15 + 1</f>
         <v>3</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="33">
         <f>H15 + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="50" t="str">
+      <c r="A16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D16" s="50" t="str">
+      <c r="D16" s="34" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="35" t="str">
         <f t="shared" si="2"/>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F16" s="50" t="str">
+      <c r="F16" s="34" t="str">
         <f>E16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G16" s="80" t="str">
+      <c r="G16" s="60" t="str">
         <f>F16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H16" s="80" t="str">
+      <c r="H16" s="60" t="str">
         <f>G16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I16" s="51" t="str">
+      <c r="I16" s="35" t="str">
         <f t="shared" si="2"/>
         <v>WINTER BREAK</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="74" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-    </row>
-    <row r="18" spans="1:9" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-    </row>
-    <row r="19" spans="1:9" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-    </row>
-    <row r="20" spans="1:9" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-    </row>
-    <row r="21" spans="1:9" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-    </row>
-    <row r="22" spans="1:9" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-    </row>
-    <row r="23" spans="1:9" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-    </row>
-    <row r="24" spans="1:9" s="74" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-    </row>
-    <row r="25" spans="1:9" s="72" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-    </row>
-    <row r="26" spans="1:9" s="74" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9" s="71" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
+    <row r="17" spans="1:9" s="58" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+    </row>
+    <row r="24" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
@@ -1908,649 +1908,649 @@
         <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="75">
+      <c r="B29" s="64">
         <f>B15</f>
         <v>7</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="9">
         <f>C15</f>
         <v>26</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="10">
         <f>C29 + 1</f>
         <v>27</v>
       </c>
-      <c r="E29" s="47">
-        <f t="shared" ref="E29:E30" si="3">D29 + 1</f>
+      <c r="E29" s="31">
+        <f t="shared" ref="E29" si="3">D29 + 1</f>
         <v>28</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="32">
         <f>F15</f>
         <v>1</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="6">
         <f>F29 + 1</f>
         <v>2</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="6">
         <f>G29 + 1</f>
         <v>3</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="33">
         <f>H29 + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="50" t="str">
+      <c r="A30" s="67"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D30" s="50" t="str">
+      <c r="D30" s="34" t="str">
         <f t="shared" ref="D30" si="4">C30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E30" s="51" t="str">
+      <c r="E30" s="35" t="str">
         <f t="shared" ref="E30" si="5">D30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F30" s="25" t="str">
+      <c r="F30" s="9" t="str">
         <f>E30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G30" s="26" t="str">
+      <c r="G30" s="10" t="str">
         <f>F30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H30" s="26" t="str">
+      <c r="H30" s="10" t="str">
         <f>G30</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I30" s="47" t="str">
+      <c r="I30" s="31" t="str">
         <f t="shared" ref="I30" si="6">H30</f>
         <v>WINTER BREAK</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="A31" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="77">
         <f>B29 + 1</f>
         <v>8</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="9">
         <f>I15 + 1</f>
         <v>5</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="11">
         <f>C31 + 1</f>
         <v>6</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="11">
         <f t="shared" ref="E31:I31" si="7">D31 + 1</f>
         <v>7</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="36">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="36">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="H31" s="52">
+      <c r="H31" s="36">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="37">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="27" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="29"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="6">
+      <c r="A33" s="70"/>
+      <c r="B33" s="68">
         <f>B31 + 1</f>
         <v>9</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="39">
         <f>I31 + 1</f>
         <v>12</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="11">
         <f>C33 + 1</f>
         <v>13</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="11">
         <f t="shared" ref="E33:I33" si="8">D33 + 1</f>
         <v>14</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="11">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="11">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="11">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="15">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="A34" s="70"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="29"/>
+      <c r="H34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="6">
+      <c r="A35" s="70"/>
+      <c r="B35" s="68">
         <f>B33 + 1</f>
         <v>10</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="14">
         <f>I33 + 1</f>
         <v>19</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="11">
         <f>C35 + 1</f>
         <v>20</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="11">
         <f t="shared" ref="E35:I37" si="9">D35 + 1</f>
         <v>21</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="11">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="11">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="11">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="15">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="27" t="s">
+      <c r="A36" s="70"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="29"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="6">
+      <c r="A37" s="70"/>
+      <c r="B37" s="68">
         <f>B35 + 1</f>
         <v>11</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="14">
         <f>I35 + 1</f>
         <v>26</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="11">
         <f>C37 + 1</f>
         <v>27</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="11">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="11">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="11">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="15">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="36" t="s">
+      <c r="A38" s="71"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="61"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="80">
         <f>B37 + 1</f>
         <v>12</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="30">
         <f>I37 + 1</f>
         <v>2</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="27">
         <f>C39 + 1</f>
         <v>3</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="24">
         <f t="shared" ref="E39:I39" si="10">D39 + 1</f>
         <v>4</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="27">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="28">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="62" t="s">
+      <c r="A40" s="74"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="41"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="9">
+      <c r="A41" s="74"/>
+      <c r="B41" s="72">
         <f>B39 + 1</f>
         <v>13</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="30">
         <f>I39 + 1</f>
         <v>9</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="27">
         <f>C41 + 1</f>
         <v>10</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="24">
         <f t="shared" ref="E41:I41" si="11">D41 + 1</f>
         <v>11</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="24">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="10">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="31">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="40" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="26" t="str">
+      <c r="E42" s="23"/>
+      <c r="F42" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="10" t="str">
         <f>G42</f>
         <v>SPRING BREAK</v>
       </c>
-      <c r="I42" s="47" t="str">
+      <c r="I42" s="31" t="str">
         <f>H42</f>
         <v>SPRING BREAK</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="9">
+      <c r="A43" s="74"/>
+      <c r="B43" s="72">
         <f>B41 + 1</f>
         <v>14</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="9">
         <f>I41 + 1</f>
         <v>16</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="10">
         <f>C43 + 1</f>
         <v>17</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="24">
         <f t="shared" ref="E43:I45" si="12">D43 + 1</f>
         <v>18</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="24">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="24">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="24">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="28">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="25" t="str">
+      <c r="A44" s="74"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="9" t="str">
         <f>I42</f>
         <v>SPRING BREAK</v>
       </c>
-      <c r="D44" s="26" t="str">
+      <c r="D44" s="10" t="str">
         <f>C44</f>
         <v>SPRING BREAK</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="41"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="9">
+      <c r="A45" s="74"/>
+      <c r="B45" s="72">
         <f>B43 + 1</f>
         <v>15</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="30">
         <f>I43 + 1</f>
         <v>23</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="24">
         <f>C45 + 1</f>
         <v>24</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="24">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="24">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="24">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="24">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="28">
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="40" t="s">
+      <c r="A46" s="74"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="41"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="9">
+      <c r="A47" s="74"/>
+      <c r="B47" s="72">
         <f>B45 + 1</f>
         <v>16</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="47">
         <f>I45 + 1</f>
         <v>30</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="48">
         <v>1</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="7">
         <f>D47 + 1</f>
         <v>2</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="49">
         <f>E47 + 1</f>
         <v>3</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="7">
         <f>F47 + 1</f>
         <v>4</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="7">
         <f>G47 + 1</f>
         <v>5</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="8">
         <f>H47 + 1</f>
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="54" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>49</v>
+      <c r="E48" s="12"/>
+      <c r="F48" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="77">
         <f>B47 + 1</f>
         <v>17</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="14">
         <f>I47 + 1</f>
         <v>7</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="11">
         <f>C49 + 1</f>
         <v>8</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="11">
         <f t="shared" ref="E49:I49" si="13">D49 + 1</f>
         <v>9</v>
       </c>
-      <c r="F49" s="67">
+      <c r="F49" s="51">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="11">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H49" s="11">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I49" s="31">
+      <c r="I49" s="15">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="68" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="59"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -941,6 +941,48 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,52 +995,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,17 +1323,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1365,10 +1365,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="80">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1400,8 +1400,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
@@ -1421,8 +1421,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68">
+      <c r="A5" s="79"/>
+      <c r="B5" s="63">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1456,8 +1456,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="14" t="s">
         <v>44</v>
       </c>
@@ -1475,8 +1475,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="68">
+      <c r="A7" s="79"/>
+      <c r="B7" s="63">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1509,8 +1509,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="19" t="s">
         <v>42</v>
       </c>
@@ -1528,10 +1528,10 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="65">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1565,8 +1565,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="29"/>
       <c r="D10" s="24" t="s">
         <v>19</v>
@@ -1582,8 +1582,8 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="72">
+      <c r="A11" s="73"/>
+      <c r="B11" s="66">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="30" t="s">
         <v>31</v>
       </c>
@@ -1636,8 +1636,8 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="72">
+      <c r="A13" s="73"/>
+      <c r="B13" s="66">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1671,8 +1671,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1694,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="72">
+      <c r="A15" s="73"/>
+      <c r="B15" s="66">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1728,8 +1728,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -1836,7 +1836,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
     </row>
-    <row r="24" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="57"/>
@@ -1847,517 +1847,547 @@
       <c r="H24" s="57"/>
       <c r="I24" s="57"/>
     </row>
-    <row r="25" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-    </row>
-    <row r="26" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+    <row r="25" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="77"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+    <row r="27" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B27" s="78">
         <f>B15</f>
         <v>7</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C27" s="9">
         <f>C15</f>
         <v>26</v>
       </c>
-      <c r="D29" s="10">
-        <f>C29 + 1</f>
+      <c r="D27" s="10">
+        <f>C27 + 1</f>
         <v>27</v>
       </c>
-      <c r="E29" s="31">
-        <f t="shared" ref="E29" si="3">D29 + 1</f>
+      <c r="E27" s="31">
+        <f t="shared" ref="E27" si="3">D27 + 1</f>
         <v>28</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F27" s="32">
         <f>F15</f>
         <v>1</v>
       </c>
-      <c r="G29" s="6">
-        <f>F29 + 1</f>
+      <c r="G27" s="6">
+        <f>F27 + 1</f>
         <v>2</v>
       </c>
-      <c r="H29" s="6">
-        <f>G29 + 1</f>
+      <c r="H27" s="6">
+        <f>G27 + 1</f>
         <v>3</v>
       </c>
-      <c r="I29" s="33">
-        <f>H29 + 1</f>
+      <c r="I27" s="33">
+        <f>H27 + 1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="34" t="str">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="74"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D30" s="34" t="str">
-        <f t="shared" ref="D30" si="4">C30</f>
+      <c r="D28" s="34" t="str">
+        <f t="shared" ref="D28" si="4">C28</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E30" s="35" t="str">
-        <f t="shared" ref="E30" si="5">D30</f>
+      <c r="E28" s="35" t="str">
+        <f t="shared" ref="E28" si="5">D28</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F30" s="9" t="str">
-        <f>E30</f>
+      <c r="F28" s="9" t="str">
+        <f>E28</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G30" s="10" t="str">
-        <f>F30</f>
+      <c r="G28" s="10" t="str">
+        <f>F28</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H30" s="10" t="str">
-        <f>G30</f>
+      <c r="H28" s="10" t="str">
+        <f>G28</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I30" s="31" t="str">
-        <f t="shared" ref="I30" si="6">H30</f>
+      <c r="I28" s="31" t="str">
+        <f t="shared" ref="I28" si="6">H28</f>
         <v>WINTER BREAK</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="77">
-        <f>B29 + 1</f>
+      <c r="B29" s="68">
+        <f>B27 + 1</f>
         <v>8</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C29" s="9">
         <f>I15 + 1</f>
         <v>5</v>
       </c>
+      <c r="D29" s="11">
+        <f>C29 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" ref="E29:I29" si="7">D29 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="F29" s="36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H29" s="36">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="63">
+        <f>B29 + 1</f>
+        <v>9</v>
+      </c>
+      <c r="C31" s="39">
+        <f>I29 + 1</f>
+        <v>12</v>
+      </c>
       <c r="D31" s="11">
         <f>C31 + 1</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" ref="E31:I31" si="7">D31 + 1</f>
-        <v>7</v>
-      </c>
-      <c r="F31" s="36">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="G31" s="36">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="H31" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E31:I31" si="8">D31 + 1</f>
+        <v>14</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="63">
+        <f>B31 + 1</f>
         <v>10</v>
       </c>
-      <c r="I31" s="37">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="68">
-        <f>B31 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="C33" s="14">
         <f>I31 + 1</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33" s="11">
         <f>C33 + 1</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" ref="E33:I33" si="8">D33 + 1</f>
-        <v>14</v>
+        <f t="shared" ref="E33:I35" si="9">D33 + 1</f>
+        <v>21</v>
       </c>
       <c r="F33" s="11">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
       <c r="G33" s="11">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>23</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="68"/>
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="79"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="40" t="s">
-        <v>27</v>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G34" s="12"/>
       <c r="H34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="68">
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="79"/>
+      <c r="B35" s="63">
         <f>B33 + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="14">
         <f>I33 + 1</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D35" s="11">
         <f>C35 + 1</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" ref="E35:I37" si="9">D35 + 1</f>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="68">
-        <f>B35 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="C37" s="14">
-        <f>I35 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="D37" s="11">
-        <f>C37 + 1</f>
-        <v>27</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="G37" s="11">
-        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H35" s="15">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I35" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="20" t="s">
+    <row r="36" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="20" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44" t="s">
+      <c r="G36" s="43"/>
+      <c r="H36" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="80">
+      <c r="B37" s="65">
+        <f>B35 + 1</f>
+        <v>12</v>
+      </c>
+      <c r="C37" s="30">
+        <f>I35 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="D37" s="27">
+        <f>C37 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" ref="E37:I37" si="10">D37 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="24">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="H37" s="27">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="I37" s="28">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="66">
         <f>B37 + 1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="30">
         <f>I37 + 1</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D39" s="27">
         <f>C39 + 1</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E39" s="24">
-        <f t="shared" ref="E39:I39" si="10">D39 + 1</f>
-        <v>4</v>
+        <f t="shared" ref="E39:I39" si="11">D39 + 1</f>
+        <v>11</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="G39" s="24">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="H39" s="27">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="I39" s="28">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="29"/>
-      <c r="D40" s="46" t="s">
-        <v>9</v>
+      <c r="D40" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="10" t="str">
+        <f>G40</f>
+        <v>SPRING BREAK</v>
+      </c>
+      <c r="I40" s="31" t="str">
+        <f>H40</f>
+        <v>SPRING BREAK</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="72">
+      <c r="A41" s="70"/>
+      <c r="B41" s="66">
         <f>B39 + 1</f>
-        <v>13</v>
-      </c>
-      <c r="C41" s="30">
+        <v>14</v>
+      </c>
+      <c r="C41" s="9">
         <f>I39 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="D41" s="27">
+        <v>16</v>
+      </c>
+      <c r="D41" s="10">
         <f>C41 + 1</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41" s="24">
-        <f t="shared" ref="E41:I41" si="11">D41 + 1</f>
-        <v>11</v>
+        <f t="shared" ref="E41:I43" si="12">D41 + 1</f>
+        <v>18</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="G41" s="10">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="H41" s="10">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="I41" s="31">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="24" t="s">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G41" s="24">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="I41" s="28">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="9" t="str">
+        <f>I40</f>
+        <v>SPRING BREAK</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f>C42</f>
+        <v>SPRING BREAK</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="10" t="str">
-        <f>G42</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="I42" s="31" t="str">
-        <f>H42</f>
-        <v>SPRING BREAK</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="72">
+      <c r="A43" s="70"/>
+      <c r="B43" s="66">
         <f>B41 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="C43" s="9">
+        <v>15</v>
+      </c>
+      <c r="C43" s="30">
         <f>I41 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="D43" s="10">
+        <v>23</v>
+      </c>
+      <c r="D43" s="24">
         <f>C43 + 1</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E43" s="24">
-        <f t="shared" ref="E43:I45" si="12">D43 + 1</f>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>25</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G43" s="24">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H43" s="24">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I43" s="28">
         <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="9" t="str">
-        <f>I42</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="D44" s="10" t="str">
-        <f>C44</f>
-        <v>SPRING BREAK</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="70"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="46" t="s">
@@ -2365,192 +2395,140 @@
       </c>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="72">
+    <row r="45" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="66">
         <f>B43 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="C45" s="30">
+        <v>16</v>
+      </c>
+      <c r="C45" s="47">
         <f>I43 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="D45" s="24">
-        <f>C45 + 1</f>
-        <v>24</v>
-      </c>
-      <c r="E45" s="24">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="F45" s="24">
-        <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="G45" s="24">
-        <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="H45" s="24">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="I45" s="28">
-        <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="D45" s="48">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <f>D45 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="F45" s="49">
+        <f>E45 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="G45" s="7">
+        <f>F45 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="H45" s="7">
+        <f>G45 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I45" s="8">
+        <f>H45 + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
-      <c r="B47" s="72">
+      <c r="A47" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="68">
         <f>B45 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="C47" s="47">
+        <v>17</v>
+      </c>
+      <c r="C47" s="14">
         <f>I45 + 1</f>
-        <v>30</v>
-      </c>
-      <c r="D47" s="48">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <f>D47 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="F47" s="49">
-        <f>E47 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="G47" s="7">
-        <f>F47 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="H47" s="7">
-        <f>G47 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="I47" s="8">
-        <f>H47 + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="75"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="77">
-        <f>B47 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="C49" s="14">
-        <f>I47 + 1</f>
         <v>7</v>
       </c>
-      <c r="D49" s="11">
-        <f>C49 + 1</f>
+      <c r="D47" s="11">
+        <f>C47 + 1</f>
         <v>8</v>
       </c>
-      <c r="E49" s="11">
-        <f t="shared" ref="E49:I49" si="13">D49 + 1</f>
+      <c r="E47" s="11">
+        <f t="shared" ref="E47:I47" si="13">D47 + 1</f>
         <v>9</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F47" s="51">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G47" s="11">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H47" s="11">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I47" s="15">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20" t="s">
+    <row r="48" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="62"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F48" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A29:A36"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A37:A46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-165" windowWidth="14175" windowHeight="12075"/>
+    <workbookView xWindow="90" yWindow="-165" windowWidth="12015" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Monday</t>
   </si>
@@ -170,19 +170,12 @@
 Design Principles and Design Patterns</t>
   </si>
   <si>
-    <t>TBD
-(Guest Lecturer on Agile Development)</t>
-  </si>
-  <si>
     <t>WINTER BREAK
 Team Project Repositories Created</t>
   </si>
   <si>
     <t>Lecture 7: HTML &amp; CSS
 Lab 1: HTML and CSS assigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lab 2: Web Applications Due (Marmoset)</t>
   </si>
   <si>
     <t>Lab 3: Git and Egit (in class)</t>
@@ -249,29 +242,50 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Lecture 3: Requirements, Use Cases
-(UD, Chapter 9)
-A02: Ind Project Proposal due
-(Google Doc)</t>
-  </si>
-  <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(subject to change)</t>
-  </si>
-  <si>
     <t>Lecture 2: Development Process, Manifesto for Agile Development
 UD-Chapter 2</t>
   </si>
   <si>
+    <t>Lecture 8: Web Applications
+Lab 2: Web Applications assigned</t>
+  </si>
+  <si>
+    <t>Plant Tour @ Red Lion Controls
+OR
+Team Session
+(in class)</t>
+  </si>
+  <si>
+    <t>Lecture 3: Requirements, Use Cases
+(UD, Chapter 9)</t>
+  </si>
+  <si>
+    <t>A02: Ind Project Proposal due
+(Google Doc)</t>
+  </si>
+  <si>
     <t>Agile Development and Extreme Programming
 (XP: Chapters 1-5, Questions and Discussions)
-Development Process discussion
+Development Process discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 A01: Team Project Proposal due
-(Google Doc)</t>
-  </si>
-  <si>
-    <t>Lecture 8: Web Applications
-Lab 2: Web Applications assigned</t>
+(Google Doc)
+ Lab 2: Web Applications Due (Marmoset)
+</t>
+  </si>
+  <si>
+    <t>Lab 2: Web Applications
+(in class)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2017 Schedule
+(as of 1-22-2017, subject to change)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2017 Schedule
+(as of 1-22-17, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -759,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,30 +955,57 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,31 +1015,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,27 +1340,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="A1" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1361,14 +1378,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="80">
+      <c r="A3" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="72">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1400,29 +1417,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="63">
+      <c r="A5" s="70"/>
+      <c r="B5" s="68">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1455,28 +1472,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="63"/>
+    <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="63">
+      <c r="A7" s="70"/>
+      <c r="B7" s="68">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1508,30 +1525,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="19" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
-        <v>20</v>
+      <c r="H8" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="65">
+      <c r="A9" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="77">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1565,25 +1582,27 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="30" t="s">
+        <v>62</v>
+      </c>
       <c r="D10" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="66">
+      <c r="A11" s="75"/>
+      <c r="B11" s="74">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1616,28 +1635,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="24" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="66">
+      <c r="A13" s="75"/>
+      <c r="B13" s="74">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1671,8 +1690,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
@@ -1681,21 +1700,21 @@
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="66">
+      <c r="A15" s="75"/>
+      <c r="B15" s="74">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1728,8 +1747,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -1825,18 +1844,18 @@
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
     </row>
-    <row r="23" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="57"/>
@@ -1847,668 +1866,733 @@
       <c r="H24" s="57"/>
       <c r="I24" s="57"/>
     </row>
-    <row r="25" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="77"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="25" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+    </row>
+    <row r="26" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+    </row>
+    <row r="28" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+    </row>
+    <row r="29" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="78">
+      <c r="B32" s="64">
         <f>B15</f>
         <v>7</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C32" s="9">
         <f>C15</f>
         <v>26</v>
       </c>
-      <c r="D27" s="10">
-        <f>C27 + 1</f>
+      <c r="D32" s="10">
+        <f>C32 + 1</f>
         <v>27</v>
       </c>
-      <c r="E27" s="31">
-        <f t="shared" ref="E27" si="3">D27 + 1</f>
+      <c r="E32" s="31">
+        <f t="shared" ref="E32" si="3">D32 + 1</f>
         <v>28</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F32" s="32">
         <f>F15</f>
         <v>1</v>
       </c>
-      <c r="G27" s="6">
-        <f>F27 + 1</f>
+      <c r="G32" s="6">
+        <f>F32 + 1</f>
         <v>2</v>
       </c>
-      <c r="H27" s="6">
-        <f>G27 + 1</f>
+      <c r="H32" s="6">
+        <f>G32 + 1</f>
         <v>3</v>
       </c>
-      <c r="I27" s="33">
-        <f>H27 + 1</f>
+      <c r="I32" s="33">
+        <f>H32 + 1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="34" t="str">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D28" s="34" t="str">
-        <f t="shared" ref="D28" si="4">C28</f>
+      <c r="D33" s="34" t="str">
+        <f t="shared" ref="D33" si="4">C33</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E28" s="35" t="str">
-        <f t="shared" ref="E28" si="5">D28</f>
+      <c r="E33" s="35" t="str">
+        <f t="shared" ref="E33" si="5">D33</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F28" s="9" t="str">
-        <f>E28</f>
+      <c r="F33" s="9" t="str">
+        <f>E33</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G28" s="10" t="str">
-        <f>F28</f>
+      <c r="G33" s="10" t="str">
+        <f>F33</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H28" s="10" t="str">
-        <f>G28</f>
+      <c r="H33" s="10" t="str">
+        <f>G33</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I28" s="31" t="str">
-        <f t="shared" ref="I28" si="6">H28</f>
+      <c r="I33" s="31" t="str">
+        <f t="shared" ref="I33" si="6">H33</f>
         <v>WINTER BREAK</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="68">
-        <f>B27 + 1</f>
+    <row r="34" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="76">
+        <f>B32 + 1</f>
         <v>8</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C34" s="9">
         <f>I15 + 1</f>
         <v>5</v>
       </c>
-      <c r="D29" s="11">
-        <f>C29 + 1</f>
+      <c r="D34" s="11">
+        <f>C34 + 1</f>
         <v>6</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" ref="E29:I29" si="7">D29 + 1</f>
+      <c r="E34" s="11">
+        <f t="shared" ref="E34:I34" si="7">D34 + 1</f>
         <v>7</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F34" s="36">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G34" s="36">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H34" s="36">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I34" s="37">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="11" t="s">
+    <row r="35" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="G35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="63">
-        <f>B29 + 1</f>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
+      <c r="B36" s="68">
+        <f>B34 + 1</f>
         <v>9</v>
       </c>
-      <c r="C31" s="39">
-        <f>I29 + 1</f>
+      <c r="C36" s="39">
+        <f>I34 + 1</f>
         <v>12</v>
       </c>
-      <c r="D31" s="11">
-        <f>C31 + 1</f>
+      <c r="D36" s="11">
+        <f>C36 + 1</f>
         <v>13</v>
       </c>
-      <c r="E31" s="11">
-        <f t="shared" ref="E31:I31" si="8">D31 + 1</f>
+      <c r="E36" s="11">
+        <f t="shared" ref="E36:I36" si="8">D36 + 1</f>
         <v>14</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F36" s="11">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G36" s="11">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H36" s="11">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I36" s="15">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="40" t="s">
+    <row r="37" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="63">
-        <f>B31 + 1</f>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
+      <c r="B38" s="68">
+        <f>B36 + 1</f>
         <v>10</v>
       </c>
-      <c r="C33" s="14">
-        <f>I31 + 1</f>
+      <c r="C38" s="14">
+        <f>I36 + 1</f>
         <v>19</v>
       </c>
-      <c r="D33" s="11">
-        <f>C33 + 1</f>
+      <c r="D38" s="11">
+        <f>C38 + 1</f>
         <v>20</v>
       </c>
-      <c r="E33" s="11">
-        <f t="shared" ref="E33:I35" si="9">D33 + 1</f>
+      <c r="E38" s="11">
+        <f t="shared" ref="E38:I40" si="9">D38 + 1</f>
         <v>21</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F38" s="11">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G38" s="11">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H38" s="11">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I38" s="15">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="79"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="11" t="s">
+    <row r="39" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="70"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="63">
-        <f>B33 + 1</f>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
+      <c r="B40" s="68">
+        <f>B38 + 1</f>
         <v>11</v>
       </c>
-      <c r="C35" s="14">
-        <f>I33 + 1</f>
+      <c r="C40" s="14">
+        <f>I38 + 1</f>
         <v>26</v>
       </c>
-      <c r="D35" s="11">
-        <f>C35 + 1</f>
+      <c r="D40" s="11">
+        <f>C40 + 1</f>
         <v>27</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E40" s="11">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F40" s="11">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G40" s="11">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H40" s="15">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I40" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="20" t="s">
+    <row r="41" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="71"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="20" t="s">
+      <c r="E41" s="43"/>
+      <c r="F41" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44" t="s">
+      <c r="G41" s="43"/>
+      <c r="H41" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="65">
-        <f>B35 + 1</f>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="77">
+        <f>B40 + 1</f>
         <v>12</v>
       </c>
-      <c r="C37" s="30">
-        <f>I35 + 1</f>
+      <c r="C42" s="30">
+        <f>I40 + 1</f>
         <v>2</v>
       </c>
-      <c r="D37" s="27">
-        <f>C37 + 1</f>
+      <c r="D42" s="27">
+        <f>C42 + 1</f>
         <v>3</v>
       </c>
-      <c r="E37" s="24">
-        <f t="shared" ref="E37:I37" si="10">D37 + 1</f>
+      <c r="E42" s="24">
+        <f t="shared" ref="E42:I42" si="10">D42 + 1</f>
         <v>4</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F42" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G42" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H42" s="27">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I42" s="28">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="46" t="s">
+    <row r="43" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A43" s="79"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="46" t="s">
+      <c r="G43" s="23"/>
+      <c r="H43" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="66">
-        <f>B37 + 1</f>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="79"/>
+      <c r="B44" s="74">
+        <f>B42 + 1</f>
         <v>13</v>
       </c>
-      <c r="C39" s="30">
-        <f>I37 + 1</f>
+      <c r="C44" s="30">
+        <f>I42 + 1</f>
         <v>9</v>
       </c>
-      <c r="D39" s="27">
-        <f>C39 + 1</f>
+      <c r="D44" s="27">
+        <f>C44 + 1</f>
         <v>10</v>
       </c>
-      <c r="E39" s="24">
-        <f t="shared" ref="E39:I39" si="11">D39 + 1</f>
+      <c r="E44" s="24">
+        <f t="shared" ref="E44:I44" si="11">D44 + 1</f>
         <v>11</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F44" s="24">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G44" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H44" s="10">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I44" s="31">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="24" t="s">
+    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A45" s="79"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="10" t="str">
-        <f>G40</f>
+      <c r="H45" s="10" t="str">
+        <f>G45</f>
         <v>SPRING BREAK</v>
       </c>
-      <c r="I40" s="31" t="str">
-        <f>H40</f>
+      <c r="I45" s="31" t="str">
+        <f>H45</f>
         <v>SPRING BREAK</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="66">
-        <f>B39 + 1</f>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="79"/>
+      <c r="B46" s="74">
+        <f>B44 + 1</f>
         <v>14</v>
       </c>
-      <c r="C41" s="9">
-        <f>I39 + 1</f>
+      <c r="C46" s="9">
+        <f>I44 + 1</f>
         <v>16</v>
       </c>
-      <c r="D41" s="10">
-        <f>C41 + 1</f>
+      <c r="D46" s="10">
+        <f>C46 + 1</f>
         <v>17</v>
       </c>
-      <c r="E41" s="24">
-        <f t="shared" ref="E41:I43" si="12">D41 + 1</f>
+      <c r="E46" s="24">
+        <f t="shared" ref="E46:I48" si="12">D46 + 1</f>
         <v>18</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F46" s="24">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G46" s="24">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H46" s="24">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I46" s="28">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="9" t="str">
-        <f>I40</f>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="9" t="str">
+        <f>I45</f>
         <v>SPRING BREAK</v>
       </c>
-      <c r="D42" s="10" t="str">
-        <f>C42</f>
+      <c r="D47" s="10" t="str">
+        <f>C47</f>
         <v>SPRING BREAK</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24" t="s">
+      <c r="E47" s="23"/>
+      <c r="F47" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="46" t="s">
+      <c r="G47" s="23"/>
+      <c r="H47" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="66">
-        <f>B41 + 1</f>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="79"/>
+      <c r="B48" s="74">
+        <f>B46 + 1</f>
         <v>15</v>
       </c>
-      <c r="C43" s="30">
-        <f>I41 + 1</f>
+      <c r="C48" s="30">
+        <f>I46 + 1</f>
         <v>23</v>
       </c>
-      <c r="D43" s="24">
-        <f>C43 + 1</f>
+      <c r="D48" s="24">
+        <f>C48 + 1</f>
         <v>24</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E48" s="24">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F48" s="24">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G48" s="24">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H48" s="24">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I48" s="28">
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="24" t="s">
+    <row r="49" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="79"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="46" t="s">
+      <c r="G49" s="23"/>
+      <c r="H49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="66">
-        <f>B43 + 1</f>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="79"/>
+      <c r="B50" s="74">
+        <f>B48 + 1</f>
         <v>16</v>
       </c>
-      <c r="C45" s="47">
-        <f>I43 + 1</f>
+      <c r="C50" s="47">
+        <f>I48 + 1</f>
         <v>30</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D50" s="48">
         <v>1</v>
       </c>
-      <c r="E45" s="7">
-        <f>D45 + 1</f>
+      <c r="E50" s="7">
+        <f>D50 + 1</f>
         <v>2</v>
       </c>
-      <c r="F45" s="49">
-        <f>E45 + 1</f>
+      <c r="F50" s="49">
+        <f>E50 + 1</f>
         <v>3</v>
       </c>
-      <c r="G45" s="7">
-        <f>F45 + 1</f>
+      <c r="G50" s="7">
+        <f>F50 + 1</f>
         <v>4</v>
       </c>
-      <c r="H45" s="7">
-        <f>G45 + 1</f>
+      <c r="H50" s="7">
+        <f>G50 + 1</f>
         <v>5</v>
       </c>
-      <c r="I45" s="8">
-        <f>H45 + 1</f>
+      <c r="I50" s="8">
+        <f>H50 + 1</f>
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="38" t="s">
+    <row r="51" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="80"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="68">
-        <f>B45 + 1</f>
+      <c r="B52" s="76">
+        <f>B50 + 1</f>
         <v>17</v>
       </c>
-      <c r="C47" s="14">
-        <f>I45 + 1</f>
+      <c r="C52" s="14">
+        <f>I50 + 1</f>
         <v>7</v>
       </c>
-      <c r="D47" s="11">
-        <f>C47 + 1</f>
+      <c r="D52" s="11">
+        <f>C52 + 1</f>
         <v>8</v>
       </c>
-      <c r="E47" s="11">
-        <f t="shared" ref="E47:I47" si="13">D47 + 1</f>
+      <c r="E52" s="11">
+        <f t="shared" ref="E52:I52" si="13">D52 + 1</f>
         <v>9</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F52" s="51">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G52" s="11">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H52" s="11">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="52" t="s">
+    <row r="53" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="71"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -2516,19 +2600,9 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A37:A46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Monday</t>
   </si>
@@ -136,10 +136,6 @@
 (in-class session)</t>
   </si>
   <si>
-    <t>A05: Use Cases due
-(Google Doc)</t>
-  </si>
-  <si>
     <t>A06: Team Problem Domain Analysis due
 (Violet UML &amp; Google Doc)</t>
   </si>
@@ -269,23 +265,25 @@
 Development Process discussion</t>
   </si>
   <si>
+    <t>Lab 2: Web Applications
+(in class)</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 A01: Team Project Proposal due
 (Google Doc)
- Lab 2: Web Applications Due (Marmoset)
+ Lab 2: Web Applications I Due (Marmoset)
 </t>
   </si>
   <si>
-    <t>Lab 2: Web Applications
-(in class)</t>
+    <t>Lab 2a: Web Applications II Due
+(Marmoset)
+A05: Use Cases due
+(Google Doc)</t>
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 1-22-2017, subject to change)</t>
-  </si>
-  <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 1-22-17, subject to change)</t>
+(as of 1-26-2017, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -955,6 +953,42 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,55 +1001,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,27 +1338,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1378,14 +1376,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="72">
+      <c r="B3" s="80">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1417,29 +1415,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68">
+      <c r="A5" s="79"/>
+      <c r="B5" s="64">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1473,27 +1471,27 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="68">
+      <c r="A7" s="79"/>
+      <c r="B7" s="64">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1526,29 +1524,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="81" t="s">
-        <v>33</v>
+      <c r="F8" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="77">
+      <c r="A9" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="66">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1582,10 +1580,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>20</v>
@@ -1601,8 +1599,8 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="74">
+      <c r="A11" s="81"/>
+      <c r="B11" s="67">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1635,11 +1633,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="74"/>
+    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="30" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>21</v>
@@ -1655,8 +1653,8 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="74">
+      <c r="A13" s="81"/>
+      <c r="B13" s="67">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1690,31 +1688,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="74">
+      <c r="A15" s="81"/>
+      <c r="B15" s="67">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1747,8 +1745,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -1844,29 +1842,29 @@
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
     </row>
-    <row r="23" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+    </row>
+    <row r="24" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="57"/>
@@ -1877,425 +1875,497 @@
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
     </row>
-    <row r="26" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-    </row>
-    <row r="28" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="26" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="str">
+        <f>A1</f>
+        <v>CS320: SW Engineering - Spring 2017 Schedule
+(as of 1-26-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="64">
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="76">
         <f>B15</f>
         <v>7</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C28" s="9">
         <f>C15</f>
         <v>26</v>
       </c>
-      <c r="D32" s="10">
-        <f>C32 + 1</f>
+      <c r="D28" s="10">
+        <f>C28 + 1</f>
         <v>27</v>
       </c>
-      <c r="E32" s="31">
-        <f t="shared" ref="E32" si="3">D32 + 1</f>
+      <c r="E28" s="31">
+        <f t="shared" ref="E28" si="3">D28 + 1</f>
         <v>28</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F28" s="32">
         <f>F15</f>
         <v>1</v>
       </c>
-      <c r="G32" s="6">
-        <f>F32 + 1</f>
+      <c r="G28" s="6">
+        <f>F28 + 1</f>
         <v>2</v>
       </c>
-      <c r="H32" s="6">
-        <f>G32 + 1</f>
+      <c r="H28" s="6">
+        <f>G28 + 1</f>
         <v>3</v>
       </c>
-      <c r="I32" s="33">
-        <f>H32 + 1</f>
+      <c r="I28" s="33">
+        <f>H28 + 1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="34" t="str">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="D33" s="34" t="str">
-        <f t="shared" ref="D33" si="4">C33</f>
+      <c r="D29" s="34" t="str">
+        <f t="shared" ref="D29" si="4">C29</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="E33" s="35" t="str">
-        <f t="shared" ref="E33" si="5">D33</f>
+      <c r="E29" s="35" t="str">
+        <f t="shared" ref="E29" si="5">D29</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="F33" s="9" t="str">
-        <f>E33</f>
+      <c r="F29" s="9" t="str">
+        <f>E29</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="G33" s="10" t="str">
-        <f>F33</f>
+      <c r="G29" s="10" t="str">
+        <f>F29</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="H33" s="10" t="str">
-        <f>G33</f>
+      <c r="H29" s="10" t="str">
+        <f>G29</f>
         <v>WINTER BREAK</v>
       </c>
-      <c r="I33" s="31" t="str">
-        <f t="shared" ref="I33" si="6">H33</f>
+      <c r="I29" s="31" t="str">
+        <f t="shared" ref="I29" si="6">H29</f>
         <v>WINTER BREAK</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="76">
-        <f>B32 + 1</f>
+    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="69">
+        <f>B28 + 1</f>
         <v>8</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C30" s="9">
         <f>I15 + 1</f>
         <v>5</v>
       </c>
+      <c r="D30" s="11">
+        <f>C30 + 1</f>
+        <v>6</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" ref="E30:I30" si="7">D30 + 1</f>
+        <v>7</v>
+      </c>
+      <c r="F30" s="36">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H30" s="36">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="64">
+        <f>B30 + 1</f>
+        <v>9</v>
+      </c>
+      <c r="C32" s="39">
+        <f>I30 + 1</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="11">
+        <f>C32 + 1</f>
+        <v>13</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" ref="E32:I32" si="8">D32 + 1</f>
+        <v>14</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="79"/>
+      <c r="B34" s="64">
+        <f>B32 + 1</f>
+        <v>10</v>
+      </c>
+      <c r="C34" s="14">
+        <f>I32 + 1</f>
+        <v>19</v>
+      </c>
       <c r="D34" s="11">
         <f>C34 + 1</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" ref="E34:I34" si="7">D34 + 1</f>
+        <f t="shared" ref="E34:I36" si="9">D34 + 1</f>
+        <v>21</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="79"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="36">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="G34" s="36">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="H34" s="36">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="I34" s="37">
-        <f t="shared" si="7"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="64">
+        <f>B34 + 1</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="68">
-        <f>B34 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="C36" s="39">
+      <c r="C36" s="14">
         <f>I34 + 1</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D36" s="11">
         <f>C36 + 1</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" ref="E36:I36" si="8">D36 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="F36" s="11">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="G36" s="11">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="H36" s="11">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="I36" s="15">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="68">
-        <f>B36 + 1</f>
-        <v>10</v>
-      </c>
-      <c r="C38" s="14">
-        <f>I36 + 1</f>
-        <v>19</v>
-      </c>
-      <c r="D38" s="11">
-        <f>C38 + 1</f>
-        <v>20</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" ref="E38:I40" si="9">D38 + 1</f>
-        <v>21</v>
-      </c>
-      <c r="F38" s="11">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="I38" s="15">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="68">
-        <f>B38 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="C40" s="14">
-        <f>I38 + 1</f>
-        <v>26</v>
-      </c>
-      <c r="D40" s="11">
-        <f>C40 + 1</f>
-        <v>27</v>
-      </c>
-      <c r="E40" s="11">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F36" s="11">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G36" s="11">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H36" s="15">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I36" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="20" t="s">
+    <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="20" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44" t="s">
+      <c r="G37" s="43"/>
+      <c r="H37" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="77">
-        <f>B40 + 1</f>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="66">
+        <f>B36 + 1</f>
         <v>12</v>
       </c>
-      <c r="C42" s="30">
-        <f>I40 + 1</f>
+      <c r="C38" s="30">
+        <f>I36 + 1</f>
         <v>2</v>
       </c>
-      <c r="D42" s="27">
-        <f>C42 + 1</f>
+      <c r="D38" s="27">
+        <f>C38 + 1</f>
         <v>3</v>
       </c>
-      <c r="E42" s="24">
-        <f t="shared" ref="E42:I42" si="10">D42 + 1</f>
+      <c r="E38" s="24">
+        <f t="shared" ref="E38:I38" si="10">D38 + 1</f>
         <v>4</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F38" s="24">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G38" s="24">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H38" s="27">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I38" s="28">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="46" t="s">
+    <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="46" t="s">
         <v>9</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
+      <c r="B40" s="67">
+        <f>B38 + 1</f>
+        <v>13</v>
+      </c>
+      <c r="C40" s="30">
+        <f>I38 + 1</f>
+        <v>9</v>
+      </c>
+      <c r="D40" s="27">
+        <f>C40 + 1</f>
+        <v>10</v>
+      </c>
+      <c r="E40" s="24">
+        <f t="shared" ref="E40:I40" si="11">D40 + 1</f>
+        <v>11</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="I40" s="31">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+      <c r="A41" s="71"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="10" t="str">
+        <f>G41</f>
+        <v>SPRING BREAK</v>
+      </c>
+      <c r="I41" s="31" t="str">
+        <f>H41</f>
+        <v>SPRING BREAK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="71"/>
+      <c r="B42" s="67">
+        <f>B40 + 1</f>
+        <v>14</v>
+      </c>
+      <c r="C42" s="9">
+        <f>I40 + 1</f>
+        <v>16</v>
+      </c>
+      <c r="D42" s="10">
+        <f>C42 + 1</f>
+        <v>17</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" ref="E42:I44" si="12">D42 + 1</f>
+        <v>18</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="I42" s="28">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="71"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="9" t="str">
+        <f>I41</f>
+        <v>SPRING BREAK</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f>C43</f>
+        <v>SPRING BREAK</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="46" t="s">
@@ -2304,295 +2374,171 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="74">
+      <c r="A44" s="71"/>
+      <c r="B44" s="67">
         <f>B42 + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" s="30">
         <f>I42 + 1</f>
-        <v>9</v>
-      </c>
-      <c r="D44" s="27">
+        <v>23</v>
+      </c>
+      <c r="D44" s="24">
         <f>C44 + 1</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E44" s="24">
-        <f t="shared" ref="E44:I44" si="11">D44 + 1</f>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>25</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="G44" s="10">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="H44" s="10">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="I44" s="31">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="74"/>
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="G44" s="24">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="I44" s="28">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="71"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="29"/>
       <c r="D45" s="24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="10" t="str">
-        <f>G45</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="I45" s="31" t="str">
-        <f>H45</f>
-        <v>SPRING BREAK</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="74">
+        <v>25</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="71"/>
+      <c r="B46" s="67">
         <f>B44 + 1</f>
-        <v>14</v>
-      </c>
-      <c r="C46" s="9">
+        <v>16</v>
+      </c>
+      <c r="C46" s="47">
         <f>I44 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="D46" s="10">
-        <f>C46 + 1</f>
+        <v>30</v>
+      </c>
+      <c r="D46" s="48">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <f>D46 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="F46" s="49">
+        <f>E46 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="7">
+        <f>F46 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="H46" s="7">
+        <f>G46 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I46" s="8">
+        <f>H46 + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="72"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="69">
+        <f>B46 + 1</f>
         <v>17</v>
       </c>
-      <c r="E46" s="24">
-        <f t="shared" ref="E46:I48" si="12">D46 + 1</f>
-        <v>18</v>
-      </c>
-      <c r="F46" s="24">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="G46" s="24">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H46" s="24">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="I46" s="28">
-        <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="9" t="str">
-        <f>I45</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="D47" s="10" t="str">
-        <f>C47</f>
-        <v>SPRING BREAK</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="74">
-        <f>B46 + 1</f>
-        <v>15</v>
-      </c>
-      <c r="C48" s="30">
+      <c r="C48" s="14">
         <f>I46 + 1</f>
-        <v>23</v>
-      </c>
-      <c r="D48" s="24">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11">
         <f>C48 + 1</f>
-        <v>24</v>
-      </c>
-      <c r="E48" s="24">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="F48" s="24">
-        <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="G48" s="24">
-        <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="H48" s="24">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="I48" s="28">
-        <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="79"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="74">
-        <f>B48 + 1</f>
-        <v>16</v>
-      </c>
-      <c r="C50" s="47">
-        <f>I48 + 1</f>
-        <v>30</v>
-      </c>
-      <c r="D50" s="48">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7">
-        <f>D50 + 1</f>
-        <v>2</v>
-      </c>
-      <c r="F50" s="49">
-        <f>E50 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="G50" s="7">
-        <f>F50 + 1</f>
-        <v>4</v>
-      </c>
-      <c r="H50" s="7">
-        <f>G50 + 1</f>
-        <v>5</v>
-      </c>
-      <c r="I50" s="8">
-        <f>H50 + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="80"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="76">
-        <f>B50 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="C52" s="14">
-        <f>I50 + 1</f>
-        <v>7</v>
-      </c>
-      <c r="D52" s="11">
-        <f>C52 + 1</f>
         <v>8</v>
       </c>
-      <c r="E52" s="11">
-        <f t="shared" ref="E52:I52" si="13">D52 + 1</f>
+      <c r="E48" s="11">
+        <f t="shared" ref="E48:I48" si="13">D48 + 1</f>
         <v>9</v>
       </c>
-      <c r="F52" s="51">
+      <c r="F48" s="51">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G48" s="11">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H48" s="11">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I48" s="15">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="52" t="s">
+    <row r="49" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -2600,9 +2546,19 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Monday</t>
   </si>
@@ -60,11 +60,6 @@
 (in class)</t>
   </si>
   <si>
-    <t>A03: Team MS3
-75% woring system (w/SQL DB)
-(in class)</t>
-  </si>
-  <si>
     <t>A04: Ind MS3
 67% Working Progress
 (in class)</t>
@@ -152,10 +147,6 @@
     <t>Lecture  11: ORM, Designing a Persistence Layer
 Lab 6: ORM
 (assigned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t xml:space="preserve">Lecture Git: Version Control
@@ -284,6 +275,15 @@
   <si>
     <t>CS320: SW Engineering - Spring 2017 Schedule
 (as of 1-26-2017, subject to change)</t>
+  </si>
+  <si>
+    <t>A03: Team MS3
+75% working system (w/SQL DB)
+(in class)</t>
+  </si>
+  <si>
+    <t>Scrum/Agile
+BD Guest Lecturer(s)</t>
   </si>
 </sst>
 </file>
@@ -956,30 +956,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,33 +1014,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,27 +1338,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="A1" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1376,14 +1376,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="80">
+      <c r="A3" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="73">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1415,29 +1415,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="64">
+      <c r="A5" s="71"/>
+      <c r="B5" s="69">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1471,27 +1471,27 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="64">
+      <c r="A7" s="71"/>
+      <c r="B7" s="69">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1524,29 +1524,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="66">
+      <c r="A9" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="78">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1580,27 +1580,27 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="67">
+      <c r="A11" s="76"/>
+      <c r="B11" s="75">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1634,27 +1634,27 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="67">
+      <c r="A13" s="76"/>
+      <c r="B13" s="75">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1688,31 +1688,29 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="76"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="I14" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="67">
+      <c r="A15" s="76"/>
+      <c r="B15" s="75">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1745,8 +1743,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -1876,29 +1874,29 @@
       <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="str">
+      <c r="A26" s="62" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
 (as of 1-26-2017, subject to change)</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -1916,14 +1914,14 @@
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="76">
+      <c r="B28" s="65">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1957,8 +1955,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
@@ -1989,10 +1987,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="69">
+      <c r="A30" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="77">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2026,31 +2024,31 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="64">
+      <c r="A32" s="71"/>
+      <c r="B32" s="69">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2084,27 +2082,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="64">
+      <c r="A34" s="71"/>
+      <c r="B34" s="69">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2138,25 +2136,25 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="14"/>
       <c r="D35" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="64">
+      <c r="A36" s="71"/>
+      <c r="B36" s="69">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2189,27 +2187,27 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="42"/>
       <c r="D37" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="66">
+      <c r="A38" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="78">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2225,7 +2223,7 @@
         <f t="shared" ref="E38:I38" si="10">D38 + 1</f>
         <v>4</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="27">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -2243,25 +2241,25 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="29"/>
       <c r="D39" s="46" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="24" t="s">
-        <v>26</v>
+      <c r="F39" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="67">
+      <c r="A40" s="80"/>
+      <c r="B40" s="75">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2295,18 +2293,18 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="29"/>
       <c r="D41" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="10" t="str">
         <f>G41</f>
@@ -2318,8 +2316,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="67">
+      <c r="A42" s="80"/>
+      <c r="B42" s="75">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2353,8 +2351,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="67"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2365,17 +2363,17 @@
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="67">
+      <c r="A44" s="80"/>
+      <c r="B44" s="75">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2409,25 +2407,25 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="29"/>
       <c r="D45" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="67">
+      <c r="A46" s="80"/>
+      <c r="B46" s="75">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2460,29 +2458,29 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
-      <c r="B47" s="68"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="50"/>
       <c r="D47" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="69">
+      <c r="B48" s="77">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2516,15 +2514,15 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="20"/>
@@ -2533,6 +2531,16 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A26:I26"/>
@@ -2549,16 +2557,6 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -273,10 +273,6 @@
 (Google Doc)</t>
   </si>
   <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 1-26-2017, subject to change)</t>
-  </si>
-  <si>
     <t>A03: Team MS3
 75% working system (w/SQL DB)
 (in class)</t>
@@ -284,6 +280,10 @@
   <si>
     <t>Scrum/Agile
 BD Guest Lecturer(s)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2017 Schedule
+(as of 2-11-2017, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -956,6 +956,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,52 +1001,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,17 +1338,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="A1" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1380,10 +1380,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="80">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1415,8 +1415,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="9" t="s">
         <v>47</v>
       </c>
@@ -1436,8 +1436,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="69">
+      <c r="A5" s="79"/>
+      <c r="B5" s="64">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1471,8 +1471,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="14" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1490,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="69">
+      <c r="A7" s="79"/>
+      <c r="B7" s="64">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1524,8 +1524,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="19" t="s">
         <v>62</v>
       </c>
@@ -1543,10 +1543,10 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="66">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1580,8 +1580,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="30" t="s">
         <v>59</v>
       </c>
@@ -1599,8 +1599,8 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="75">
+      <c r="A11" s="81"/>
+      <c r="B11" s="67">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1634,8 +1634,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="30" t="s">
         <v>63</v>
       </c>
@@ -1653,8 +1653,8 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="75">
+      <c r="A13" s="81"/>
+      <c r="B13" s="67">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1688,8 +1688,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
         <v>34</v>
@@ -1709,8 +1709,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="75">
+      <c r="A15" s="81"/>
+      <c r="B15" s="67">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1743,8 +1743,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -1874,19 +1874,19 @@
       <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="str">
+      <c r="A26" s="73" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 1-26-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+(as of 2-11-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1918,10 +1918,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="76">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1955,8 +1955,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
@@ -1987,10 +1987,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="69">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2024,8 +2024,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="69"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
@@ -2047,8 +2047,8 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="69">
+      <c r="A32" s="79"/>
+      <c r="B32" s="64">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2082,15 +2082,15 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="69"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>14</v>
@@ -2101,8 +2101,8 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="69">
+      <c r="A34" s="79"/>
+      <c r="B34" s="64">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2136,8 +2136,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="69"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="14"/>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -2153,8 +2153,8 @@
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="69">
+      <c r="A36" s="79"/>
+      <c r="B36" s="64">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2187,8 +2187,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="42"/>
       <c r="D37" s="20" t="s">
         <v>8</v>
@@ -2204,10 +2204,10 @@
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="66">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2241,8 +2241,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="29"/>
       <c r="D39" s="46" t="s">
         <v>9</v>
@@ -2258,8 +2258,8 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="75">
+      <c r="A40" s="71"/>
+      <c r="B40" s="67">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="29"/>
       <c r="D41" s="24" t="s">
         <v>10</v>
@@ -2316,8 +2316,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="75">
+      <c r="A42" s="71"/>
+      <c r="B42" s="67">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="46" t="s">
@@ -2372,8 +2372,8 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="75">
+      <c r="A44" s="71"/>
+      <c r="B44" s="67">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2407,8 +2407,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="80"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="29"/>
       <c r="D45" s="24" t="s">
         <v>11</v>
@@ -2424,8 +2424,8 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="B46" s="75">
+      <c r="A46" s="71"/>
+      <c r="B46" s="67">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2458,8 +2458,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="50"/>
       <c r="D47" s="38" t="s">
         <v>12</v>
@@ -2477,10 +2477,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="77">
+      <c r="B48" s="69">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2514,8 +2514,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">
@@ -2531,16 +2531,6 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A26:I26"/>
@@ -2557,6 +2547,16 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -283,7 +283,7 @@
   </si>
   <si>
     <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 2-11-2017, subject to change)</t>
+(as of 2-13-2017, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,6 +954,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,7 +1323,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,17 +1341,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1380,10 +1383,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="81">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1415,8 +1418,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="9" t="s">
         <v>47</v>
       </c>
@@ -1436,8 +1439,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="64">
+      <c r="A5" s="80"/>
+      <c r="B5" s="65">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1471,8 +1474,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14" t="s">
         <v>39</v>
       </c>
@@ -1490,8 +1493,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="64">
+      <c r="A7" s="80"/>
+      <c r="B7" s="65">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1524,8 +1527,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="19" t="s">
         <v>62</v>
       </c>
@@ -1543,10 +1546,10 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="67">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1580,8 +1583,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="30" t="s">
         <v>59</v>
       </c>
@@ -1599,8 +1602,8 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="67">
+      <c r="A11" s="82"/>
+      <c r="B11" s="68">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1634,8 +1637,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="30" t="s">
         <v>63</v>
       </c>
@@ -1653,8 +1656,8 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="67">
+      <c r="A13" s="82"/>
+      <c r="B13" s="68">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1688,17 +1691,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="24" t="s">
@@ -1709,8 +1712,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="67">
+      <c r="A15" s="82"/>
+      <c r="B15" s="68">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1743,8 +1746,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="34" t="str">
         <f>I14</f>
         <v>WINTER BREAK</v>
@@ -1874,19 +1877,19 @@
       <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="str">
+      <c r="A26" s="74" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 2-11-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+(as of 2-13-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1918,10 +1921,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="77">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1955,8 +1958,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>WINTER BREAK</v>
@@ -1987,10 +1990,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="70">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2024,8 +2027,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
@@ -2047,8 +2050,8 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="64">
+      <c r="A32" s="80"/>
+      <c r="B32" s="65">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2082,27 +2085,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="64">
+      <c r="A34" s="80"/>
+      <c r="B34" s="65">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2136,8 +2139,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="14"/>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -2148,13 +2151,13 @@
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="64">
+      <c r="A36" s="80"/>
+      <c r="B36" s="65">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2187,15 +2190,15 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="42"/>
       <c r="D37" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="44" t="s">
@@ -2204,10 +2207,10 @@
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="67">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2241,8 +2244,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="29"/>
       <c r="D39" s="46" t="s">
         <v>9</v>
@@ -2258,8 +2261,8 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="67">
+      <c r="A40" s="72"/>
+      <c r="B40" s="68">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2293,8 +2296,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="29"/>
       <c r="D41" s="24" t="s">
         <v>10</v>
@@ -2316,8 +2319,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="67">
+      <c r="A42" s="72"/>
+      <c r="B42" s="68">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2351,8 +2354,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="67"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2372,8 +2375,8 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="67">
+      <c r="A44" s="72"/>
+      <c r="B44" s="68">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2407,8 +2410,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="29"/>
       <c r="D45" s="24" t="s">
         <v>11</v>
@@ -2424,8 +2427,8 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="67">
+      <c r="A46" s="72"/>
+      <c r="B46" s="68">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2458,8 +2461,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
-      <c r="B47" s="68"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="50"/>
       <c r="D47" s="38" t="s">
         <v>12</v>
@@ -2477,10 +2480,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="69">
+      <c r="B48" s="70">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2514,8 +2517,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Monday</t>
   </si>
@@ -44,12 +44,6 @@
 (in class)</t>
   </si>
   <si>
-    <t xml:space="preserve">A04: Ind MS1
-Baseline Prototype
-(in class)
-</t>
-  </si>
-  <si>
     <t>A03: Team MS2
 Progress on Features
 (in class)</t>
@@ -83,9 +77,6 @@
     <t>Team session: Analysis model presentation and discussion</t>
   </si>
   <si>
-    <t>WINTER BREAK</t>
-  </si>
-  <si>
     <t>Team Use Cases
 (in-class session)</t>
   </si>
@@ -116,10 +107,6 @@
   <si>
     <t>SQL/JDBC/ORM Review and Lab Time
 (in-class)</t>
-  </si>
-  <si>
-    <t>Mid-Term
-Exam</t>
   </si>
   <si>
     <t>Lecture 4: UML Class Diagrams
@@ -149,16 +136,8 @@
 (assigned)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lecture Git: Version Control
-</t>
-  </si>
-  <si>
     <t>Lecture 6: OO Design, OCP, LSP
 Design Principles and Design Patterns</t>
-  </si>
-  <si>
-    <t>WINTER BREAK
-Team Project Repositories Created</t>
   </si>
   <si>
     <t>Lecture 7: HTML &amp; CSS
@@ -282,8 +261,24 @@
 BD Guest Lecturer(s)</t>
   </si>
   <si>
+    <t>Winter Break</t>
+  </si>
+  <si>
+    <t>Lecture Git: Version Control</t>
+  </si>
+  <si>
     <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 2-13-2017, subject to change)</t>
+(as of 2-21-2017, subject to change)</t>
+  </si>
+  <si>
+    <t>A04: Ind MS1
+Baseline Prototype
+(in class)</t>
+  </si>
+  <si>
+    <t>Mid-Term
+Exam
+(in class)</t>
   </si>
 </sst>
 </file>
@@ -771,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,30 +954,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,31 +1014,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1320,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,28 +1344,28 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1379,14 +1383,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="81">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="74">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1417,30 +1421,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="65"/>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="65">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="70">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1473,28 +1477,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="65"/>
+    <row r="6" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="65">
+    <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="70">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1526,30 +1530,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="B8" s="66"/>
+    <row r="8" spans="1:13" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="67">
+    <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="79">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1582,28 +1586,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="68"/>
+    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="68">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="76">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1636,28 +1640,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="68"/>
+    <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="68">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="76">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1690,30 +1694,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="68"/>
+    <row r="14" spans="1:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" s="22"/>
       <c r="H14" s="24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="68">
+        <v>27</v>
+      </c>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="76">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1745,39 +1749,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="34" t="str">
-        <f>I14</f>
-        <v>WINTER BREAK</v>
+    <row r="16" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="69"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="34" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="E16" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>E16</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>F16</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="H16" s="60" t="str">
         <f>G16</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="I16" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>WINTER BREAK</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="58" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>Winter Break</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="58" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="54"/>
       <c r="C17" s="57"/>
@@ -1788,7 +1791,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
     </row>
-    <row r="18" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="57"/>
@@ -1799,7 +1802,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
     </row>
-    <row r="19" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="53"/>
@@ -1810,7 +1813,7 @@
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
     </row>
-    <row r="20" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="57"/>
@@ -1821,7 +1824,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
     </row>
-    <row r="21" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
       <c r="C21" s="57"/>
@@ -1832,7 +1835,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
     </row>
-    <row r="22" spans="1:9" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="57"/>
@@ -1843,7 +1846,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
     </row>
-    <row r="23" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="53"/>
@@ -1854,7 +1857,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
     </row>
-    <row r="24" spans="1:9" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="53"/>
@@ -1865,7 +1868,7 @@
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
     </row>
-    <row r="25" spans="1:9" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="57"/>
@@ -1876,30 +1879,30 @@
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
     </row>
-    <row r="26" spans="1:9" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="str">
+    <row r="26" spans="1:11" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 2-13-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-    </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+(as of 2-21-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -1917,14 +1920,14 @@
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="77">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="66">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1957,43 +1960,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
-      <c r="B29" s="69"/>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="D29" s="34" t="str">
         <f t="shared" ref="D29" si="4">C29</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="E29" s="35" t="str">
         <f t="shared" ref="E29" si="5">D29</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>E29</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="G29" s="10" t="str">
         <f>F29</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="H29" s="10" t="str">
         <f>G29</f>
-        <v>WINTER BREAK</v>
+        <v>Winter Break</v>
       </c>
       <c r="I29" s="31" t="str">
         <f t="shared" ref="I29" si="6">H29</f>
-        <v>WINTER BREAK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="70">
+        <v>Winter Break</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="78">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2026,32 +2029,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="9" t="s">
-        <v>36</v>
+    <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="9" t="str">
+        <f>I29</f>
+        <v>Winter Break</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="65">
+      <c r="K31" s="85"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="72"/>
+      <c r="B32" s="70">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2084,28 +2085,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="65"/>
+    <row r="33" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F33" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="65">
+      <c r="K33" s="83"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
+      <c r="B34" s="70">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2138,26 +2142,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="65"/>
+    <row r="35" spans="1:11" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="72"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="14"/>
       <c r="D35" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="65">
+    <row r="36" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="70">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2189,28 +2193,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66"/>
+    <row r="37" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="42"/>
       <c r="D37" s="20" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="43"/>
+        <v>24</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I37" s="45"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="67">
+    <row r="38" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="79">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2243,26 +2249,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="68"/>
+    <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="29"/>
       <c r="D39" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="68">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="76">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2295,19 +2301,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="68"/>
+    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="29"/>
       <c r="D41" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H41" s="10" t="str">
         <f>G41</f>
@@ -2318,9 +2324,9 @@
         <v>SPRING BREAK</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="68">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="81"/>
+      <c r="B42" s="76">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2353,9 +2359,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="68"/>
+    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2366,17 +2372,17 @@
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="68">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
+      <c r="B44" s="76">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2409,26 +2415,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="68"/>
+    <row r="45" spans="1:11" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="81"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="29"/>
       <c r="D45" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="68">
+    <row r="46" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="76">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2460,30 +2466,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="69"/>
+    <row r="47" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="82"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="50"/>
       <c r="D47" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="51" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="78">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2516,16 +2522,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66"/>
+    <row r="49" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="20"/>
@@ -2534,6 +2540,16 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A26:I26"/>
@@ -2550,16 +2566,6 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="-165" windowWidth="12015" windowHeight="12075"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Monday</t>
   </si>
@@ -34,9 +39,6 @@
   </si>
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Month</t>
   </si>
   <si>
     <t>A03: Team MS1
@@ -64,10 +66,6 @@
 (in class)</t>
   </si>
   <si>
-    <t>A08: Team Presentation and Demo
-(Final Exam Period)</t>
-  </si>
-  <si>
     <t>Lab 6: ORM Due (Marmoset)</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
   </si>
   <si>
     <t>Lecture 13: Code Quality</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Team Session
@@ -167,22 +162,10 @@
 (Marmoset)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lecture 9: Relational Databses
-Lab 4: SQL, Queries, and Joins
-(assigned)
-</t>
-  </si>
-  <si>
     <t>A09: Ind Code and Report
 (Marmoset)</t>
   </si>
   <si>
-    <t>Last Class
-A04: Ind MS4
-Final Project Demo
-(in class)</t>
-  </si>
-  <si>
     <t>SEMESTER
 BREAK</t>
   </si>
@@ -191,18 +174,6 @@
   </si>
   <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
   </si>
   <si>
     <t>Week</t>
@@ -252,23 +223,10 @@
 (Google Doc)</t>
   </si>
   <si>
-    <t>A03: Team MS3
-75% working system (w/SQL DB)
-(in class)</t>
-  </si>
-  <si>
-    <t>Scrum/Agile
-BD Guest Lecturer(s)</t>
-  </si>
-  <si>
     <t>Winter Break</t>
   </si>
   <si>
     <t>Lecture Git: Version Control</t>
-  </si>
-  <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 2-21-2017, subject to change)</t>
   </si>
   <si>
     <t>A04: Ind MS1
@@ -279,6 +237,48 @@
     <t>Mid-Term
 Exam
 (in class)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2017 Schedule
+(as of 3-4-2017, subject to change)</t>
+  </si>
+  <si>
+    <t>Scrum/Agile
+BD Guest Lecturer</t>
+  </si>
+  <si>
+    <t>A03: Team MS3
+75% working system
+(w/SQL DB)
+(in class)</t>
+  </si>
+  <si>
+    <t>** LAST CLASS **
+A04: Ind MS4
+Final Project Demo
+(in class)</t>
+  </si>
+  <si>
+    <t>Lecture 9: Relational Databses
+Lab 4: SQL, Queries, and Joins
+(assigned)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>A08: Team Presentation and Demonstration
+(in class)
+** DURING FINAL EXAM PERIOD **</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +380,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -766,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -912,9 +924,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,6 +963,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,61 +1002,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,6 +1062,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1080,7 +1113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,7 +1148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1326,13 +1359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
@@ -1345,27 +1378,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="A1" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1383,14 +1414,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="74">
+      <c r="A3" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="77">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1422,29 +1453,29 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="70">
+      <c r="A5" s="79"/>
+      <c r="B5" s="65">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1478,27 +1509,27 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="70">
+      <c r="A7" s="79"/>
+      <c r="B7" s="65">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1531,29 +1562,29 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="61" t="s">
-        <v>28</v>
+      <c r="F8" s="60" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="79">
+      <c r="A9" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="67">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1587,27 +1618,27 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="76">
+      <c r="A11" s="82"/>
+      <c r="B11" s="68">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1641,27 +1672,27 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="76">
+      <c r="A13" s="82"/>
+      <c r="B13" s="68">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1695,29 +1726,29 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="62" t="s">
-        <v>20</v>
+      <c r="F14" s="61" t="s">
+        <v>18</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+        <v>24</v>
+      </c>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="76">
+      <c r="A15" s="82"/>
+      <c r="B15" s="68">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1750,10 +1781,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="34" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D16" s="34" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
@@ -1767,11 +1798,11 @@
         <f>E16</f>
         <v>Winter Break</v>
       </c>
-      <c r="G16" s="60" t="str">
+      <c r="G16" s="59" t="str">
         <f>F16</f>
         <v>Winter Break</v>
       </c>
-      <c r="H16" s="60" t="str">
+      <c r="H16" s="59" t="str">
         <f>G16</f>
         <v>Winter Break</v>
       </c>
@@ -1780,129 +1811,127 @@
         <v>Winter Break</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="58" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="1:11" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-    </row>
-    <row r="20" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="1:11" s="58" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="1:11" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-    </row>
-    <row r="24" spans="1:11" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="1:11" s="58" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:11" s="55" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="str">
+    <row r="17" spans="1:11" s="57" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:11" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:11" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:11" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:11" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:11" s="57" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:11" s="54" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="71" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 2-21-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+(as of 3-4-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -1920,14 +1949,12 @@
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="66">
+      <c r="A28" s="75"/>
+      <c r="B28" s="74">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1961,8 +1988,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>Winter Break</v>
@@ -1993,10 +2020,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="78">
+      <c r="A30" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="70">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2030,29 +2057,29 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="9" t="str">
         <f>I29</f>
         <v>Winter Break</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I31" s="13"/>
-      <c r="K31" s="85"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="70">
+      <c r="A32" s="79"/>
+      <c r="B32" s="65">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2085,31 +2112,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="70"/>
+    <row r="33" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="K33" s="83"/>
+      <c r="K33" s="62"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="70">
+      <c r="A34" s="79"/>
+      <c r="B34" s="65">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2143,25 +2170,25 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="70"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
+      <c r="D35" s="50" t="s">
+        <v>6</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="70">
+      <c r="A36" s="79"/>
+      <c r="B36" s="65">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2194,29 +2221,29 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="20" t="s">
-        <v>64</v>
+      <c r="D37" s="87" t="s">
+        <v>52</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="79">
+      <c r="A38" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="67">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2250,25 +2277,25 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="46" t="s">
-        <v>8</v>
+      <c r="D39" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="46" t="s">
-        <v>23</v>
+      <c r="F39" s="90" t="s">
+        <v>53</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="76">
+      <c r="A40" s="85"/>
+      <c r="B40" s="68">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2302,18 +2329,18 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="24" t="s">
-        <v>9</v>
+      <c r="D41" s="88" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="23"/>
-      <c r="F41" s="24" t="s">
-        <v>65</v>
+      <c r="F41" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41" s="10" t="str">
         <f>G41</f>
@@ -2325,8 +2352,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="76">
+      <c r="A42" s="85"/>
+      <c r="B42" s="68">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2360,8 +2387,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2371,18 +2398,18 @@
         <v>SPRING BREAK</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="24" t="s">
-        <v>59</v>
+      <c r="F43" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="G43" s="23"/>
-      <c r="H43" s="46" t="s">
-        <v>23</v>
+      <c r="H43" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="76">
+      <c r="A44" s="85"/>
+      <c r="B44" s="68">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2416,25 +2443,25 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="24" t="s">
-        <v>10</v>
+      <c r="D45" s="88" t="s">
+        <v>9</v>
       </c>
       <c r="E45" s="23"/>
-      <c r="F45" s="24" t="s">
-        <v>22</v>
+      <c r="F45" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="76">
+      <c r="A46" s="85"/>
+      <c r="B46" s="68">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2449,7 +2476,7 @@
         <f>D46 + 1</f>
         <v>2</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="7">
         <f>E46 + 1</f>
         <v>3</v>
       </c>
@@ -2466,30 +2493,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="38" t="s">
-        <v>11</v>
+    <row r="47" spans="1:11" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="89" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="51" t="s">
-        <v>41</v>
+      <c r="F47" s="88" t="s">
+        <v>57</v>
       </c>
       <c r="G47" s="12"/>
-      <c r="H47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>37</v>
+      <c r="H47" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="91" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="78">
+      <c r="B48" s="70">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2505,7 +2532,7 @@
         <f t="shared" ref="E48:I48" si="13">D48 + 1</f>
         <v>9</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="11">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
@@ -2523,15 +2550,15 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>12</v>
+      <c r="E49" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="20"/>
@@ -2540,16 +2567,6 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A26:I26"/>
@@ -2566,6 +2583,16 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2017\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="-165" windowWidth="12015" windowHeight="12075"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Monday</t>
   </si>
@@ -39,34 +34,6 @@
   </si>
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>A03: Team MS1
-Minimal Working System
-(in class)</t>
-  </si>
-  <si>
-    <t>A03: Team MS2
-Progress on Features
-(in class)</t>
-  </si>
-  <si>
-    <t>A04: Ind MS2
-33% Working Progresss
-(in class)</t>
-  </si>
-  <si>
-    <t>A04: Ind MS3
-67% Working Progress
-(in class)</t>
-  </si>
-  <si>
-    <t>A03: Team MS4
-95% Working System
-(in class)</t>
-  </si>
-  <si>
-    <t>Lab 6: ORM Due (Marmoset)</t>
   </si>
   <si>
     <t>Lecture 1: Course Overview, OOP</t>
@@ -147,9 +114,6 @@
   </si>
   <si>
     <t>Lab 4: SQL, Queries, and Joins  due (Marmoset)</t>
-  </si>
-  <si>
-    <t>Lab 5: JDBC due (Marmoset)</t>
   </si>
   <si>
     <t>A08: Team Code and Report 
@@ -229,34 +193,8 @@
     <t>Lecture Git: Version Control</t>
   </si>
   <si>
-    <t>A04: Ind MS1
-Baseline Prototype
-(in class)</t>
-  </si>
-  <si>
-    <t>Mid-Term
-Exam
-(in class)</t>
-  </si>
-  <si>
-    <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 3-4-2017, subject to change)</t>
-  </si>
-  <si>
     <t>Scrum/Agile
 BD Guest Lecturer</t>
-  </si>
-  <si>
-    <t>A03: Team MS3
-75% working system
-(w/SQL DB)
-(in class)</t>
-  </si>
-  <si>
-    <t>** LAST CLASS **
-A04: Ind MS4
-Final Project Demo
-(in class)</t>
   </si>
   <si>
     <t>Lecture 9: Relational Databses
@@ -279,6 +217,59 @@
     <t>A08: Team Presentation and Demonstration
 (in class)
 ** DURING FINAL EXAM PERIOD **</t>
+  </si>
+  <si>
+    <t>Team Session
+(in class)
+Lab 5: JDBC due (Marmoset)</t>
+  </si>
+  <si>
+    <t>Mid-Term
+Exam
+(in-class)</t>
+  </si>
+  <si>
+    <t>A03: Team MS2
+Progress on Features</t>
+  </si>
+  <si>
+    <t>A03: Team MS3
+75% working system
+(w/SQL DB)</t>
+  </si>
+  <si>
+    <t>A03: Team MS4
+95% Working System</t>
+  </si>
+  <si>
+    <t>** LAST CLASS **
+A04: Ind MS4
+Final Project Demo</t>
+  </si>
+  <si>
+    <t>A04: Ind MS2
+33% Working Progresss</t>
+  </si>
+  <si>
+    <t>A03: Team MS1
+Minimal Working System</t>
+  </si>
+  <si>
+    <t>A04: Ind MS1
+Baseline Prototype</t>
+  </si>
+  <si>
+    <t>A04: Ind MS3
+67% Working Progress</t>
+  </si>
+  <si>
+    <t>Team Session
+(in class)
+Lab 6: ORM Due (Marmoset)</t>
+  </si>
+  <si>
+    <t>CS320: SW Engineering - Spring 2017 Schedule
+(as of 3-11-2017, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -972,43 +963,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,6 +1011,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1029,6 +1029,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1037,21 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,7 +1104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1148,7 +1139,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1359,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,25 +1369,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
+      <c r="A1" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -1414,14 +1405,14 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="77">
+        <v>47</v>
+      </c>
+      <c r="B3" s="81">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1454,28 +1445,28 @@
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
-      <c r="B4" s="65"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
-      <c r="B5" s="65">
+      <c r="B5" s="77">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1510,26 +1501,26 @@
     </row>
     <row r="6" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
-      <c r="B7" s="65">
+      <c r="B7" s="77">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1563,28 +1554,28 @@
     </row>
     <row r="8" spans="1:13" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
-      <c r="B8" s="66"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="67">
+      <c r="A9" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="88">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1618,27 +1609,27 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="68">
+      <c r="A11" s="85"/>
+      <c r="B11" s="83">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1672,27 +1663,27 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="68">
+      <c r="A13" s="85"/>
+      <c r="B13" s="83">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1726,29 +1717,29 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="61" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L14" s="63"/>
       <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="68">
+      <c r="A15" s="85"/>
+      <c r="B15" s="83">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1781,10 +1772,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D16" s="34" t="str">
         <f t="shared" ref="D16:I16" si="2">C16</f>
@@ -1911,27 +1902,27 @@
       <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="54" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="str">
+      <c r="A26" s="70" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 3-4-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+(as of 3-11-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -1949,12 +1940,12 @@
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75"/>
-      <c r="B28" s="74">
+      <c r="B28" s="73">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1989,7 +1980,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="76"/>
-      <c r="B29" s="69"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>Winter Break</v>
@@ -2021,9 +2012,9 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="70">
+        <v>49</v>
+      </c>
+      <c r="B30" s="87">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2058,28 +2049,28 @@
     </row>
     <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="79"/>
-      <c r="B31" s="65"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="9" t="str">
         <f>I29</f>
         <v>Winter Break</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I31" s="13"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="79"/>
-      <c r="B32" s="65">
+      <c r="B32" s="77">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2112,31 +2103,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="11" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I33" s="13"/>
       <c r="K33" s="62"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
-      <c r="B34" s="65">
+      <c r="B34" s="77">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2169,26 +2158,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="79"/>
-      <c r="B35" s="65"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="14"/>
       <c r="D35" s="50" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="79"/>
-      <c r="B36" s="65">
+      <c r="B36" s="77">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2220,30 +2209,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="80"/>
-      <c r="B37" s="66"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="87" t="s">
-        <v>52</v>
+      <c r="D37" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G37" s="20"/>
       <c r="H37" s="44" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="67">
+      <c r="A38" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="88">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2276,26 +2263,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A39" s="85"/>
-      <c r="B39" s="68"/>
+    <row r="39" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="29"/>
       <c r="D39" s="50" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="90" t="s">
+      <c r="F39" s="68" t="s">
         <v>53</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="68">
+      <c r="A40" s="90"/>
+      <c r="B40" s="83">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2328,19 +2315,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
-      <c r="B41" s="68"/>
+    <row r="41" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="90"/>
+      <c r="B41" s="83"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="88" t="s">
-        <v>8</v>
+      <c r="D41" s="66" t="s">
+        <v>58</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H41" s="10" t="str">
         <f>G41</f>
@@ -2352,8 +2339,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="68">
+      <c r="A42" s="90"/>
+      <c r="B42" s="83">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2386,9 +2373,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
-      <c r="B43" s="68"/>
+    <row r="43" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2399,17 +2386,17 @@
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="68">
+      <c r="A44" s="90"/>
+      <c r="B44" s="83">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2442,26 +2429,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="85"/>
-      <c r="B45" s="68"/>
+    <row r="45" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="90"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="88" t="s">
-        <v>9</v>
+      <c r="D45" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="68">
+      <c r="A46" s="90"/>
+      <c r="B46" s="83">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2493,30 +2480,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
-      <c r="B47" s="69"/>
+    <row r="47" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="91"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="49"/>
-      <c r="D47" s="89" t="s">
-        <v>10</v>
+      <c r="D47" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="88" t="s">
+      <c r="F47" s="66" t="s">
         <v>57</v>
       </c>
       <c r="G47" s="12"/>
-      <c r="H47" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" s="91" t="s">
-        <v>34</v>
+      <c r="H47" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="69" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="87">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2551,14 +2538,14 @@
     </row>
     <row r="49" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="80"/>
-      <c r="B49" s="66"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="51" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="20"/>
@@ -2567,6 +2554,16 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A26:I26"/>
@@ -2583,16 +2580,6 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/CS320-Spring2017Calendar.xlsx
+++ b/CS320-Spring2017Calendar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Monday</t>
   </si>
@@ -268,8 +268,12 @@
 Lab 6: ORM Due (Marmoset)</t>
   </si>
   <si>
+    <t>Library Example and Exam Review
+(in-class)</t>
+  </si>
+  <si>
     <t>CS320: SW Engineering - Spring 2017 Schedule
-(as of 3-11-2017, subject to change)</t>
+(as of 3-29-2017, subject to change)</t>
   </si>
 </sst>
 </file>
@@ -978,46 +982,61 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,21 +1046,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1350,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,17 +1373,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="A1" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1409,10 +1413,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="88">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1444,8 +1448,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
@@ -1465,8 +1469,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="77">
+      <c r="A5" s="87"/>
+      <c r="B5" s="72">
         <f>B3 + 1</f>
         <v>2</v>
       </c>
@@ -1500,8 +1504,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1519,8 +1523,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="77">
+      <c r="A7" s="87"/>
+      <c r="B7" s="72">
         <f>B5 + 1</f>
         <v>3</v>
       </c>
@@ -1553,8 +1557,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="144.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="19" t="s">
         <v>41</v>
       </c>
@@ -1572,10 +1576,10 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="74">
         <f>B7 + 1</f>
         <v>4</v>
       </c>
@@ -1609,8 +1613,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="30" t="s">
         <v>38</v>
       </c>
@@ -1628,8 +1632,8 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="83">
+      <c r="A11" s="90"/>
+      <c r="B11" s="75">
         <f>B9 + 1</f>
         <v>5</v>
       </c>
@@ -1663,8 +1667,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="30" t="s">
         <v>42</v>
       </c>
@@ -1682,8 +1686,8 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="83">
+      <c r="A13" s="90"/>
+      <c r="B13" s="75">
         <f>B11 + 1</f>
         <v>6</v>
       </c>
@@ -1717,8 +1721,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="30"/>
       <c r="D14" s="24" t="s">
         <v>22</v>
@@ -1738,8 +1742,8 @@
       <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="83">
+      <c r="A15" s="90"/>
+      <c r="B15" s="75">
         <f>B13 + 1</f>
         <v>7</v>
       </c>
@@ -1772,8 +1776,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="34" t="s">
         <v>43</v>
       </c>
@@ -1902,19 +1906,19 @@
       <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:11" s="54" customFormat="1" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="str">
+      <c r="A26" s="81" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2017 Schedule
-(as of 3-11-2017, subject to change)</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+(as of 3-29-2017, subject to change)</v>
+      </c>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1944,8 +1948,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="B28" s="73">
+      <c r="A28" s="85"/>
+      <c r="B28" s="84">
         <f>B15</f>
         <v>7</v>
       </c>
@@ -1979,8 +1983,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="34" t="str">
         <f>C16</f>
         <v>Winter Break</v>
@@ -2011,10 +2015,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="87">
+      <c r="B30" s="77">
         <f>B28 + 1</f>
         <v>8</v>
       </c>
@@ -2048,8 +2052,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="9" t="str">
         <f>I29</f>
         <v>Winter Break</v>
@@ -2069,8 +2073,8 @@
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="77">
+      <c r="A32" s="87"/>
+      <c r="B32" s="72">
         <f>B30 + 1</f>
         <v>9</v>
       </c>
@@ -2104,8 +2108,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="14"/>
       <c r="D33" s="40" t="s">
         <v>46</v>
@@ -2124,8 +2128,8 @@
       <c r="K33" s="62"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="77">
+      <c r="A34" s="87"/>
+      <c r="B34" s="72">
         <f>B32 + 1</f>
         <v>10</v>
       </c>
@@ -2159,8 +2163,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="14"/>
       <c r="D35" s="50" t="s">
         <v>59</v>
@@ -2176,8 +2180,8 @@
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="77">
+      <c r="A36" s="87"/>
+      <c r="B36" s="72">
         <f>B34 + 1</f>
         <v>11</v>
       </c>
@@ -2210,8 +2214,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80"/>
-      <c r="B37" s="82"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="42"/>
       <c r="D37" s="65" t="s">
         <v>60</v>
@@ -2227,10 +2231,10 @@
       <c r="I37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="88">
+      <c r="B38" s="74">
         <f>B36 + 1</f>
         <v>12</v>
       </c>
@@ -2264,25 +2268,25 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="83"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="29"/>
       <c r="D39" s="50" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="46" t="s">
-        <v>14</v>
-      </c>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="83">
+      <c r="A40" s="79"/>
+      <c r="B40" s="75">
         <f>B38 + 1</f>
         <v>13</v>
       </c>
@@ -2316,8 +2320,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
-      <c r="B41" s="83"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="29"/>
       <c r="D41" s="66" t="s">
         <v>58</v>
@@ -2339,8 +2343,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="83">
+      <c r="A42" s="79"/>
+      <c r="B42" s="75">
         <f>B40 + 1</f>
         <v>14</v>
       </c>
@@ -2374,8 +2378,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="9" t="str">
         <f>I41</f>
         <v>SPRING BREAK</v>
@@ -2395,8 +2399,8 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="83">
+      <c r="A44" s="79"/>
+      <c r="B44" s="75">
         <f>B42 + 1</f>
         <v>15</v>
       </c>
@@ -2430,8 +2434,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="90"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="29"/>
       <c r="D45" s="66" t="s">
         <v>61</v>
@@ -2447,8 +2451,8 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="83">
+      <c r="A46" s="79"/>
+      <c r="B46" s="75">
         <f>B44 + 1</f>
         <v>16</v>
       </c>
@@ -2481,8 +2485,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="49"/>
       <c r="D47" s="67" t="s">
         <v>56</v>
@@ -2500,10 +2504,10 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="87">
+      <c r="B48" s="77">
         <f>B46 + 1</f>
         <v>17</v>
       </c>
@@ -2537,8 +2541,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
-      <c r="B49" s="82"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="51" t="s">
@@ -2554,16 +2558,6 @@
     <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A26:I26"/>
@@ -2580,6 +2574,16 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A38:A47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
